--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,55 +665,63 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42094</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -721,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -741,16 +749,22 @@
       <c r="K8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>200</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
@@ -770,16 +784,22 @@
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
@@ -799,8 +819,14 @@
       <c r="K10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -812,20 +838,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
@@ -841,8 +869,14 @@
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -870,8 +904,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -899,8 +939,14 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -928,8 +974,14 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -938,23 +990,25 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F17" s="3">
         <v>500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
-        <v>0</v>
-      </c>
       <c r="H17" s="3">
         <v>0</v>
       </c>
@@ -967,8 +1021,14 @@
       <c r="K17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3">
+        <v>0</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -976,14 +1036,14 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
         <v>0</v>
       </c>
@@ -996,8 +1056,14 @@
       <c r="K18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3">
+        <v>0</v>
+      </c>
+      <c r="M18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1009,8 +1075,10 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1018,10 +1086,10 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
@@ -1038,8 +1106,14 @@
       <c r="K20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1067,16 +1141,22 @@
       <c r="K21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>4</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>4</v>
@@ -1090,29 +1170,35 @@
       <c r="I22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="J22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
         <v>0</v>
       </c>
@@ -1125,8 +1211,14 @@
       <c r="K23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1154,8 +1246,14 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1183,23 +1281,29 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
         <v>0</v>
       </c>
@@ -1212,23 +1316,29 @@
       <c r="K26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
         <v>0</v>
       </c>
@@ -1241,8 +1351,14 @@
       <c r="K27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1270,8 +1386,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1299,8 +1421,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1328,8 +1456,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1357,8 +1491,14 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1366,10 +1506,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
@@ -1386,23 +1526,29 @@
       <c r="K32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
         <v>0</v>
       </c>
@@ -1415,8 +1561,14 @@
       <c r="K33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1444,23 +1596,29 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
         <v>0</v>
       </c>
@@ -1473,42 +1631,54 @@
       <c r="K35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42094</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1520,8 +1690,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1533,22 +1705,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>4</v>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>4</v>
@@ -1556,14 +1730,20 @@
       <c r="I41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1591,8 +1771,14 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1620,22 +1806,28 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F44" s="3">
+        <v>0</v>
+      </c>
+      <c r="G44" s="3">
+        <v>0</v>
       </c>
       <c r="H44" s="3" t="s">
         <v>4</v>
@@ -1649,8 +1841,14 @@
       <c r="K44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1660,40 +1858,46 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>0</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>4</v>
@@ -1701,48 +1905,60 @@
       <c r="I46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>4</v>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
       </c>
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
+      <c r="D48" s="3">
+        <v>0</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>4</v>
@@ -1759,14 +1975,20 @@
       <c r="I48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L48" s="3">
         <v>200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1794,8 +2016,14 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1823,8 +2051,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1852,8 +2086,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1881,8 +2121,14 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1910,22 +2156,28 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E54" s="3">
-        <v>0</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="F54" s="3">
+        <v>0</v>
+      </c>
+      <c r="G54" s="3">
+        <v>0</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>4</v>
@@ -1933,14 +2185,20 @@
       <c r="I54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J54" s="3">
+      <c r="J54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1952,8 +2210,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1965,22 +2225,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>0</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
-        <v>0</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>4</v>
+      <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
+        <v>100</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>4</v>
@@ -1988,26 +2250,32 @@
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
+      <c r="J57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2017,72 +2285,90 @@
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J58" s="3">
-        <v>0</v>
-      </c>
-      <c r="K58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>200</v>
+      </c>
+      <c r="F60" s="3">
         <v>100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="F60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +2396,14 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2139,8 +2431,14 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2168,8 +2466,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2197,8 +2501,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2226,37 +2536,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>200</v>
+      </c>
+      <c r="E66" s="3">
+        <v>200</v>
+      </c>
+      <c r="F66" s="3">
         <v>100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J66" s="3">
+      <c r="J66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2268,8 +2590,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2297,8 +2621,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2326,8 +2656,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2355,8 +2691,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2384,37 +2726,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-500</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L72" s="3">
         <v>-300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2442,8 +2796,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2471,8 +2831,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2500,22 +2866,28 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E76" s="3">
-        <v>0</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>4</v>
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
+        <v>0</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>4</v>
@@ -2523,14 +2895,20 @@
       <c r="I76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J76" s="3">
+      <c r="J76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L76" s="3">
         <v>100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2558,57 +2936,69 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42094</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
         <v>0</v>
       </c>
@@ -2621,8 +3011,14 @@
       <c r="K81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2634,37 +3030,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+      <c r="E83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2692,8 +3096,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2721,8 +3131,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2750,8 +3166,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2779,8 +3201,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2808,37 +3236,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
+      <c r="G89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2850,37 +3290,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2908,8 +3356,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2937,37 +3391,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="E94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2979,8 +3445,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3008,8 +3476,14 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3037,8 +3511,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3066,8 +3546,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3095,37 +3581,49 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>600</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3153,33 +3651,45 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,63 +665,66 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>42094</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -729,11 +732,11 @@
         <v>4</v>
       </c>
       <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
         <v>200</v>
       </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
       <c r="G8" s="3">
         <v>0</v>
       </c>
@@ -755,8 +758,11 @@
       <c r="M8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -764,11 +770,11 @@
         <v>0</v>
       </c>
       <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
         <v>200</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>4</v>
       </c>
@@ -790,8 +796,11 @@
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -801,8 +810,8 @@
       <c r="E10" s="3">
         <v>0</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>4</v>
+      <c r="F10" s="3">
+        <v>0</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>4</v>
@@ -825,8 +834,11 @@
       <c r="M10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,8 +852,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -852,11 +865,11 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
+        <v>100</v>
+      </c>
+      <c r="G12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
       </c>
@@ -875,8 +888,11 @@
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -910,8 +926,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -945,8 +964,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -980,8 +1002,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,26 +1017,27 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>100</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
-        <v>0</v>
-      </c>
       <c r="I17" s="3">
         <v>0</v>
       </c>
@@ -1027,8 +1053,11 @@
       <c r="M17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1036,17 +1065,17 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
         <v>0</v>
       </c>
@@ -1062,8 +1091,11 @@
       <c r="M18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1077,8 +1109,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,14 +1119,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>400</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1112,16 +1145,19 @@
       <c r="M20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>4</v>
+      <c r="E21" s="3">
+        <v>-200</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>4</v>
@@ -1147,8 +1183,11 @@
       <c r="M21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1158,8 +1197,8 @@
       <c r="E22" s="3">
         <v>0</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>4</v>
+      <c r="F22" s="3">
+        <v>0</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>4</v>
@@ -1176,14 +1215,17 @@
       <c r="K22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
+      <c r="L22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1191,17 +1233,17 @@
         <v>-200</v>
       </c>
       <c r="E23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F23" s="3">
         <v>-4200</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
         <v>0</v>
       </c>
@@ -1217,8 +1259,11 @@
       <c r="M23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1252,8 +1297,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1287,8 +1335,11 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1296,17 +1347,17 @@
         <v>-200</v>
       </c>
       <c r="E26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F26" s="3">
         <v>-4200</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
         <v>0</v>
       </c>
@@ -1322,8 +1373,11 @@
       <c r="M26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1331,17 +1385,17 @@
         <v>-200</v>
       </c>
       <c r="E27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F27" s="3">
         <v>-4200</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
         <v>0</v>
       </c>
@@ -1357,8 +1411,11 @@
       <c r="M27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1392,8 +1449,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1427,8 +1487,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1462,8 +1525,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1497,8 +1563,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,14 +1575,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-400</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -1532,8 +1601,11 @@
       <c r="M32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,17 +1613,17 @@
         <v>-200</v>
       </c>
       <c r="E33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F33" s="3">
         <v>-4200</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
         <v>0</v>
       </c>
@@ -1567,8 +1639,11 @@
       <c r="M33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1602,8 +1677,11 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1611,17 +1689,17 @@
         <v>-200</v>
       </c>
       <c r="E35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F35" s="3">
         <v>-4200</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
         <v>0</v>
       </c>
@@ -1637,48 +1715,54 @@
       <c r="M35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>42094</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1692,8 +1776,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1707,25 +1792,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
         <v>0</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>4</v>
+      <c r="H41" s="3">
+        <v>0</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>4</v>
@@ -1736,14 +1822,17 @@
       <c r="K41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
+      <c r="L41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1777,31 +1866,34 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
-      <c r="I43" s="3">
-        <v>0</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -1812,8 +1904,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1824,13 +1919,13 @@
         <v>200</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>4</v>
+      <c r="H44" s="3">
+        <v>0</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>4</v>
@@ -1847,8 +1942,11 @@
       <c r="M44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1858,8 +1956,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -1873,8 +1971,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -1882,25 +1980,28 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
-        <v>0</v>
-      </c>
       <c r="G46" s="3">
         <v>0</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>4</v>
+      <c r="H46" s="3">
+        <v>0</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>4</v>
@@ -1911,14 +2012,17 @@
       <c r="K46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
+      <c r="L46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1943,25 +2047,28 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>4</v>
@@ -1981,14 +2088,17 @@
       <c r="K48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L48" s="3">
-        <v>200</v>
+      <c r="L48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2022,8 +2132,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2057,8 +2170,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2092,8 +2208,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,8 +2246,11 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2162,25 +2284,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>200</v>
+      </c>
+      <c r="E54" s="3">
         <v>400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>0</v>
-      </c>
       <c r="G54" s="3">
         <v>0</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>4</v>
+      <c r="H54" s="3">
+        <v>0</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>4</v>
@@ -2191,14 +2316,17 @@
       <c r="K54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="3">
-        <v>200</v>
+      <c r="L54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2212,8 +2340,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2227,8 +2356,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2236,17 +2366,17 @@
         <v>0</v>
       </c>
       <c r="E57" s="3">
+        <v>0</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
+        <v>0</v>
+      </c>
+      <c r="H57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2256,14 +2386,17 @@
       <c r="K57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
+      <c r="L57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2274,11 +2407,11 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2291,14 +2424,17 @@
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2323,17 +2459,20 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2344,13 +2483,13 @@
         <v>200</v>
       </c>
       <c r="F60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>100</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>4</v>
+      <c r="H60" s="3">
+        <v>100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>4</v>
@@ -2361,14 +2500,17 @@
       <c r="K60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2402,8 +2544,11 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2437,8 +2582,11 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2472,8 +2620,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2507,8 +2658,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2542,8 +2696,11 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2554,13 +2711,13 @@
         <v>200</v>
       </c>
       <c r="F66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>100</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>4</v>
+      <c r="H66" s="3">
+        <v>100</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>4</v>
@@ -2571,14 +2728,17 @@
       <c r="K66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2592,8 +2752,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2627,8 +2788,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2662,8 +2826,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2697,8 +2864,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2732,25 +2902,28 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-500</v>
       </c>
       <c r="G72" s="3">
         <v>-500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>4</v>
+      <c r="H72" s="3">
+        <v>-500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>4</v>
@@ -2761,14 +2934,17 @@
       <c r="K72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L72" s="3">
-        <v>-300</v>
+      <c r="L72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2802,8 +2978,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2837,8 +3016,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2872,25 +3054,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>100</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
       <c r="G76" s="3">
         <v>0</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>4</v>
+      <c r="H76" s="3">
+        <v>0</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>4</v>
@@ -2901,14 +3086,17 @@
       <c r="K76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" s="3">
         <v>100</v>
       </c>
-      <c r="M76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2942,48 +3130,54 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>42094</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2991,17 +3185,17 @@
         <v>-200</v>
       </c>
       <c r="E81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F81" s="3">
         <v>-4200</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
         <v>0</v>
       </c>
@@ -3017,8 +3211,11 @@
       <c r="M81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3032,16 +3229,17 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
         <v>0</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>4</v>
+      <c r="E83" s="3">
+        <v>0</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>4</v>
@@ -3058,8 +3256,8 @@
       <c r="J83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3067,8 +3265,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3102,8 +3303,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3137,8 +3341,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3172,8 +3379,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3207,8 +3417,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3242,43 +3455,49 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
+      <c r="I89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3292,16 +3511,17 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>4</v>
@@ -3318,8 +3538,8 @@
       <c r="J91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -3327,8 +3547,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3362,8 +3585,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3397,16 +3623,19 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
         <v>0</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>4</v>
+      <c r="E94" s="3">
+        <v>0</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>4</v>
@@ -3423,8 +3652,8 @@
       <c r="J94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -3432,8 +3661,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3447,8 +3679,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3482,8 +3715,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3517,8 +3753,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3552,8 +3791,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3587,43 +3829,49 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3657,39 +3905,45 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>4</v>
+      <c r="G102" s="3">
+        <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
+      <c r="I102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,66 +665,70 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>42094</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -735,11 +739,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
         <v>200</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
       <c r="H8" s="3">
         <v>0</v>
       </c>
@@ -761,23 +765,26 @@
       <c r="N8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E9" s="3">
         <v>0</v>
       </c>
       <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
         <v>200</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>4</v>
       </c>
@@ -799,8 +806,11 @@
       <c r="N9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -813,8 +823,8 @@
       <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>4</v>
+      <c r="G10" s="3">
+        <v>0</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>4</v>
@@ -837,8 +847,11 @@
       <c r="N10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,13 +866,14 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>100</v>
@@ -868,11 +882,11 @@
         <v>100</v>
       </c>
       <c r="G12" s="3">
+        <v>100</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
@@ -891,8 +905,11 @@
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -929,8 +946,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -967,8 +987,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1005,8 +1028,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1018,29 +1044,30 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
         <v>100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
-        <v>0</v>
-      </c>
       <c r="J17" s="3">
         <v>0</v>
       </c>
@@ -1056,8 +1083,11 @@
       <c r="N17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1065,20 +1095,20 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-3800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
@@ -1094,8 +1124,11 @@
       <c r="N18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1110,8 +1143,9 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1122,14 +1156,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>400</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1148,8 +1182,11 @@
       <c r="N20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1159,8 +1196,8 @@
       <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>4</v>
+      <c r="F21" s="3">
+        <v>-200</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>4</v>
@@ -1186,13 +1223,16 @@
       <c r="N21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1200,8 +1240,8 @@
       <c r="F22" s="3">
         <v>0</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>4</v>
+      <c r="G22" s="3">
+        <v>0</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>4</v>
@@ -1218,35 +1258,38 @@
       <c r="L22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
-        <v>-200</v>
+      <c r="D23" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
       </c>
       <c r="F23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-4200</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
@@ -1262,8 +1305,11 @@
       <c r="N23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1300,8 +1346,11 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1338,29 +1387,32 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>-200</v>
+      <c r="D26" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
       </c>
       <c r="F26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-4200</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
@@ -1376,29 +1428,32 @@
       <c r="N26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>-200</v>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
       </c>
       <c r="F27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-4200</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
@@ -1414,8 +1469,11 @@
       <c r="N27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1452,8 +1510,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1490,8 +1551,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1528,8 +1592,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1566,8 +1633,11 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1578,14 +1648,14 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-400</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -1604,29 +1674,32 @@
       <c r="N32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>-200</v>
+      <c r="D33" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
       </c>
       <c r="F33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-4200</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
@@ -1642,8 +1715,11 @@
       <c r="N33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1680,29 +1756,32 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>-200</v>
+      <c r="D35" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
       </c>
       <c r="F35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-4200</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
@@ -1718,51 +1797,57 @@
       <c r="N35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>42094</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1777,8 +1862,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1793,8 +1879,9 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1802,19 +1889,19 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>4</v>
+      <c r="I41" s="3">
+        <v>0</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>4</v>
@@ -1825,14 +1912,17 @@
       <c r="L41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
+      <c r="M41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1869,16 +1959,19 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
         <v>0</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>4</v>
+      <c r="E43" s="3">
+        <v>0</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>4</v>
@@ -1895,8 +1988,8 @@
       <c r="J43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="3">
-        <v>0</v>
+      <c r="K43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L43" s="3">
         <v>0</v>
@@ -1907,8 +2000,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1922,13 +2018,13 @@
         <v>200</v>
       </c>
       <c r="G44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="H44" s="3">
         <v>0</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>4</v>
+      <c r="I44" s="3">
+        <v>0</v>
       </c>
       <c r="J44" s="3" t="s">
         <v>4</v>
@@ -1945,13 +2041,16 @@
       <c r="N44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -1959,8 +2058,8 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>4</v>
@@ -1974,8 +2073,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -1983,28 +2082,31 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>700</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="G46" s="3">
-        <v>0</v>
-      </c>
       <c r="H46" s="3">
         <v>0</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>4</v>
+      <c r="I46" s="3">
+        <v>0</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>4</v>
@@ -2015,14 +2117,17 @@
       <c r="L46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M46" s="3">
-        <v>0</v>
+      <c r="M46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2050,17 +2155,20 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-      <c r="L47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2070,8 +2178,8 @@
       <c r="E48" s="3">
         <v>0</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>4</v>
+      <c r="F48" s="3">
+        <v>0</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>4</v>
@@ -2091,14 +2199,17 @@
       <c r="L48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M48" s="3">
-        <v>200</v>
+      <c r="M48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2135,8 +2246,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2173,8 +2287,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2211,8 +2328,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2249,8 +2369,11 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2287,28 +2410,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="G54" s="3">
-        <v>0</v>
-      </c>
       <c r="H54" s="3">
         <v>0</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>4</v>
+      <c r="I54" s="3">
+        <v>0</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>4</v>
@@ -2319,14 +2445,17 @@
       <c r="L54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M54" s="3">
-        <v>200</v>
+      <c r="M54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2341,8 +2470,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2357,8 +2487,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2369,17 +2500,17 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
+        <v>0</v>
+      </c>
+      <c r="G57" s="3">
         <v>100</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
+        <v>0</v>
+      </c>
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2389,19 +2520,22 @@
       <c r="L57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M57" s="3">
-        <v>0</v>
+      <c r="M57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2410,11 +2544,11 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2427,14 +2561,17 @@
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2462,22 +2599,25 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E60" s="3">
         <v>200</v>
@@ -2486,13 +2626,13 @@
         <v>200</v>
       </c>
       <c r="G60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>4</v>
+      <c r="I60" s="3">
+        <v>100</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>4</v>
@@ -2503,14 +2643,17 @@
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2547,8 +2690,11 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2585,8 +2731,11 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2623,8 +2772,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2661,8 +2813,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2699,13 +2854,16 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E66" s="3">
         <v>200</v>
@@ -2714,13 +2872,13 @@
         <v>200</v>
       </c>
       <c r="G66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>4</v>
+      <c r="I66" s="3">
+        <v>100</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>4</v>
@@ -2731,14 +2889,17 @@
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2753,8 +2914,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2791,8 +2953,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2829,8 +2994,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2867,8 +3035,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2905,28 +3076,31 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-5200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-5000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-500</v>
       </c>
       <c r="H72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>4</v>
+      <c r="I72" s="3">
+        <v>-500</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>4</v>
@@ -2937,14 +3111,17 @@
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M72" s="3">
-        <v>-300</v>
+      <c r="M72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2981,8 +3158,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3019,8 +3199,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3057,28 +3240,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>400</v>
+      </c>
+      <c r="E76" s="3">
         <v>100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
       <c r="H76" s="3">
         <v>0</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>4</v>
+      <c r="I76" s="3">
+        <v>0</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>4</v>
@@ -3089,14 +3275,17 @@
       <c r="L76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" s="3">
         <v>100</v>
       </c>
-      <c r="N76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3133,72 +3322,78 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>42094</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>-200</v>
+      <c r="D81" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>
       </c>
       <c r="F81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-4200</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
@@ -3214,8 +3409,11 @@
       <c r="N81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3230,8 +3428,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3241,8 +3440,8 @@
       <c r="E83" s="3">
         <v>0</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>4</v>
+      <c r="F83" s="3">
+        <v>0</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>4</v>
@@ -3259,8 +3458,8 @@
       <c r="K83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -3268,8 +3467,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3306,8 +3508,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3344,8 +3549,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3382,8 +3590,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3420,8 +3631,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3458,8 +3672,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3467,37 +3684,40 @@
         <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
+      <c r="J89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3512,8 +3732,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3523,8 +3744,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>4</v>
@@ -3541,8 +3762,8 @@
       <c r="K91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -3550,8 +3771,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3588,8 +3812,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3626,8 +3853,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3637,8 +3867,8 @@
       <c r="E94" s="3">
         <v>0</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>4</v>
+      <c r="F94" s="3">
+        <v>0</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>4</v>
@@ -3655,8 +3885,8 @@
       <c r="K94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -3664,8 +3894,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3680,8 +3913,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3718,8 +3952,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3756,8 +3993,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3794,8 +4034,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3832,46 +4075,52 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3908,42 +4157,48 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>4</v>
+      <c r="H102" s="3">
+        <v>0</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
+      <c r="J102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -1050,8 +1050,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>2700</v>
       </c>
       <c r="E17" s="3">
         <v>100</v>
@@ -1272,8 +1272,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>4</v>
+      <c r="D23" s="3">
+        <v>-8000</v>
       </c>
       <c r="E23" s="3">
         <v>-200</v>
@@ -1395,8 +1395,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-8000</v>
       </c>
       <c r="E26" s="3">
         <v>-200</v>
@@ -1436,8 +1436,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-8000</v>
       </c>
       <c r="E27" s="3">
         <v>-200</v>
@@ -1682,8 +1682,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-8000</v>
       </c>
       <c r="E33" s="3">
         <v>-200</v>
@@ -1764,8 +1764,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-8000</v>
       </c>
       <c r="E35" s="3">
         <v>-200</v>
@@ -3376,8 +3376,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-8000</v>
       </c>
       <c r="E81" s="3">
         <v>-200</v>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,70 +665,78 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42094</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -742,14 +750,14 @@
         <v>0</v>
       </c>
       <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
       <c r="J8" s="3">
         <v>0</v>
       </c>
@@ -768,29 +776,35 @@
       <c r="O8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="3">
         <v>100</v>
       </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
       <c r="F9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
         <v>200</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>4</v>
       </c>
@@ -809,8 +823,14 @@
       <c r="O9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -818,19 +838,19 @@
         <v>4</v>
       </c>
       <c r="E10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G10" s="3">
         <v>0</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>4</v>
@@ -850,8 +870,14 @@
       <c r="O10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -867,32 +893,34 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E12" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
       </c>
       <c r="H12" s="3">
+        <v>100</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>4</v>
       </c>
@@ -908,8 +936,14 @@
       <c r="O12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -949,8 +983,14 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -990,8 +1030,14 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1031,8 +1077,14 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1045,35 +1097,37 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E17" s="3">
+        <v>600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>4000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
         <v>0</v>
       </c>
@@ -1086,8 +1140,14 @@
       <c r="O17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1095,26 +1155,26 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-3800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
-        <v>0</v>
-      </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
         <v>0</v>
       </c>
@@ -1127,8 +1187,14 @@
       <c r="O18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1144,8 +1210,10 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1156,20 +1224,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-4500</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1185,8 +1253,14 @@
       <c r="O20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1194,17 +1268,17 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-7200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>4</v>
       </c>
@@ -1226,28 +1300,34 @@
       <c r="O21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>800</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>4</v>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>4</v>
@@ -1261,41 +1341,47 @@
       <c r="M22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-8000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-4200</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
         <v>0</v>
       </c>
@@ -1308,8 +1394,14 @@
       <c r="O23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1349,8 +1441,14 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1390,35 +1488,41 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-4200</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
         <v>0</v>
       </c>
@@ -1431,35 +1535,41 @@
       <c r="O26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-8000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-4200</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
         <v>0</v>
       </c>
@@ -1472,8 +1582,14 @@
       <c r="O27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1513,8 +1629,14 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1554,8 +1676,14 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1595,8 +1723,14 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1636,8 +1770,14 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1648,20 +1788,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -1677,35 +1817,41 @@
       <c r="O32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-8000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-4200</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
         <v>0</v>
       </c>
@@ -1718,8 +1864,14 @@
       <c r="O33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1759,35 +1911,41 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-8000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-4200</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
@@ -1800,54 +1958,66 @@
       <c r="O35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42094</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1863,8 +2033,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1880,34 +2052,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>4</v>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
       </c>
       <c r="L41" s="3" t="s">
         <v>4</v>
@@ -1915,14 +2089,20 @@
       <c r="M41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1962,22 +2142,28 @@
       <c r="O42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
+      <c r="D43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>4</v>
+      <c r="F43" s="3">
+        <v>0</v>
+      </c>
+      <c r="G43" s="3">
+        <v>0</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>4</v>
@@ -1991,11 +2177,11 @@
       <c r="K43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3">
-        <v>0</v>
+      <c r="L43" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -2003,16 +2189,22 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F44" s="3">
         <v>200</v>
@@ -2021,16 +2213,16 @@
         <v>200</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I44" s="3">
-        <v>0</v>
-      </c>
-      <c r="J44" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
       </c>
       <c r="L44" s="3" t="s">
         <v>4</v>
@@ -2044,28 +2236,34 @@
       <c r="O44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>300</v>
+      </c>
+      <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
         <v>0</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>4</v>
+      <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
       </c>
       <c r="J45" s="3" t="s">
         <v>4</v>
@@ -2076,43 +2274,49 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>600</v>
+      </c>
+      <c r="E46" s="3">
+        <v>400</v>
+      </c>
+      <c r="F46" s="3">
         <v>700</v>
-      </c>
-      <c r="E46" s="3">
-        <v>200</v>
-      </c>
-      <c r="F46" s="3">
-        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
       </c>
       <c r="L46" s="3" t="s">
         <v>4</v>
@@ -2120,14 +2324,20 @@
       <c r="M46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2137,20 +2347,20 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+      <c r="F47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2158,17 +2368,23 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3" t="s">
-        <v>4</v>
+      <c r="M47" s="3">
+        <v>0</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2181,11 +2397,11 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>0</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>4</v>
@@ -2202,14 +2418,20 @@
       <c r="M48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P48" s="3">
         <v>200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2249,8 +2471,14 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2290,8 +2518,14 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2331,31 +2565,37 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+      <c r="E52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2372,8 +2612,14 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2413,8 +2659,14 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2422,25 +2674,25 @@
         <v>700</v>
       </c>
       <c r="E54" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="F54" s="3">
-        <v>400</v>
+        <v>700</v>
       </c>
       <c r="G54" s="3">
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>4</v>
+        <v>200</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
       </c>
       <c r="L54" s="3" t="s">
         <v>4</v>
@@ -2448,14 +2700,20 @@
       <c r="M54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P54" s="3">
         <v>200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2471,8 +2729,10 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2488,22 +2748,24 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>0</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H57" s="3">
         <v>0</v>
@@ -2511,11 +2773,11 @@
       <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K57" s="3" t="s">
-        <v>4</v>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>100</v>
       </c>
       <c r="L57" s="3" t="s">
         <v>4</v>
@@ -2523,38 +2785,44 @@
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
+      <c r="N57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>100</v>
+      </c>
+      <c r="F58" s="3">
         <v>300</v>
-      </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
-      <c r="F58" s="3">
-        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2564,14 +2832,20 @@
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N58" s="3">
-        <v>0</v>
-      </c>
-      <c r="O58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2602,58 +2876,70 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>500</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>300</v>
-      </c>
-      <c r="E60" s="3">
-        <v>200</v>
-      </c>
-      <c r="F60" s="3">
-        <v>200</v>
       </c>
       <c r="G60" s="3">
         <v>200</v>
       </c>
       <c r="H60" s="3">
+        <v>200</v>
+      </c>
+      <c r="I60" s="3">
+        <v>200</v>
+      </c>
+      <c r="J60" s="3">
         <v>100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K60" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P60" s="3">
         <v>100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2693,8 +2979,14 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2734,8 +3026,14 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2775,8 +3073,14 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2816,8 +3120,14 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2857,49 +3167,61 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>500</v>
+      </c>
+      <c r="F66" s="3">
         <v>300</v>
-      </c>
-      <c r="E66" s="3">
-        <v>200</v>
-      </c>
-      <c r="F66" s="3">
-        <v>200</v>
       </c>
       <c r="G66" s="3">
         <v>200</v>
       </c>
       <c r="H66" s="3">
+        <v>200</v>
+      </c>
+      <c r="I66" s="3">
+        <v>200</v>
+      </c>
+      <c r="J66" s="3">
         <v>100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K66" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P66" s="3">
         <v>100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2915,8 +3237,10 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2956,8 +3280,14 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2997,8 +3327,14 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3374,14 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3079,49 +3421,61 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-15200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-13800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-13100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-5200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-5000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-4700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>4</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P72" s="3">
         <v>-300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-300</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3161,8 +3515,14 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3202,8 +3562,14 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3243,34 +3609,40 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F76" s="3">
         <v>400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
-        <v>0</v>
-      </c>
-      <c r="I76" s="3">
-        <v>0</v>
-      </c>
-      <c r="J76" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K76" s="3" t="s">
-        <v>4</v>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
       </c>
       <c r="L76" s="3" t="s">
         <v>4</v>
@@ -3278,14 +3650,20 @@
       <c r="M76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P76" s="3">
         <v>100</v>
       </c>
-      <c r="O76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3325,81 +3703,93 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42094</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-8000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-4200</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
         <v>0</v>
       </c>
@@ -3412,8 +3802,14 @@
       <c r="O81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3429,8 +3825,10 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3443,11 +3841,11 @@
       <c r="F83" s="3">
         <v>0</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>4</v>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>4</v>
@@ -3461,17 +3859,23 @@
       <c r="L83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3511,8 +3915,14 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3552,8 +3962,14 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3593,8 +4009,14 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3634,8 +4056,14 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3675,49 +4103,61 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-100</v>
+        <v>-1200</v>
       </c>
       <c r="E89" s="3">
         <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3733,13 +4173,15 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
@@ -3747,11 +4189,11 @@
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>4</v>
@@ -3765,17 +4207,23 @@
       <c r="L91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3815,8 +4263,14 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3856,8 +4310,14 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3870,11 +4330,11 @@
       <c r="F94" s="3">
         <v>0</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>4</v>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>4</v>
@@ -3888,17 +4348,23 @@
       <c r="L94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3914,8 +4380,10 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3955,8 +4423,14 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3996,8 +4470,14 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4037,8 +4517,14 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4078,49 +4564,61 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E100" s="3">
+        <v>200</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4160,45 +4658,57 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E102" s="3">
+        <v>100</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3">
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,78 +665,81 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42094</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -756,11 +759,11 @@
         <v>0</v>
       </c>
       <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
       <c r="K8" s="3">
         <v>0</v>
       </c>
@@ -782,32 +785,35 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="3">
-        <v>100</v>
+      <c r="E9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F9" s="3">
         <v>100</v>
       </c>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H9" s="3">
         <v>0</v>
       </c>
       <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
         <v>200</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="K9" s="3" t="s">
         <v>4</v>
       </c>
@@ -829,22 +835,25 @@
       <c r="Q9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3">
-        <v>-100</v>
+      <c r="E10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F10" s="3">
         <v>-100</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
         <v>0</v>
@@ -852,8 +861,8 @@
       <c r="I10" s="3">
         <v>0</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>4</v>
+      <c r="J10" s="3">
+        <v>0</v>
       </c>
       <c r="K10" s="3" t="s">
         <v>4</v>
@@ -876,8 +885,11 @@
       <c r="Q10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,22 +907,23 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>900</v>
+      </c>
+      <c r="E12" s="3">
         <v>500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>200</v>
       </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
       <c r="G12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
         <v>100</v>
@@ -919,11 +932,11 @@
         <v>100</v>
       </c>
       <c r="J12" s="3">
+        <v>100</v>
+      </c>
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -942,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -989,31 +1005,34 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1036,8 +1055,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1083,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1099,38 +1124,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E17" s="3">
         <v>1200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>4000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>100</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
         <v>0</v>
       </c>
@@ -1146,8 +1172,11 @@
       <c r="Q17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1155,29 +1184,29 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-2700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-3800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
@@ -1193,8 +1222,11 @@
       <c r="Q18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1212,8 +1244,9 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1221,26 +1254,26 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-4500</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1259,8 +1292,11 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1268,19 +1304,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F21" s="3">
         <v>-600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-7200</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-200</v>
       </c>
       <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>4</v>
+      <c r="I21" s="3">
+        <v>-200</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>4</v>
@@ -1306,31 +1342,34 @@
       <c r="Q21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
-      </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>800</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>4</v>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>4</v>
@@ -1347,44 +1386,47 @@
       <c r="O22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
+      <c r="P22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-1400</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-200</v>
       </c>
       <c r="H23" s="3">
         <v>-200</v>
       </c>
       <c r="I23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-4200</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
@@ -1400,8 +1442,11 @@
       <c r="Q23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1447,8 +1492,11 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1494,38 +1542,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-1400</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-200</v>
       </c>
       <c r="H26" s="3">
         <v>-200</v>
       </c>
       <c r="I26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-4200</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
@@ -1541,38 +1592,41 @@
       <c r="Q26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-1400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-200</v>
       </c>
       <c r="H27" s="3">
         <v>-200</v>
       </c>
       <c r="I27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-4200</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
@@ -1588,8 +1642,11 @@
       <c r="Q27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1635,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1682,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1729,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1776,8 +1842,11 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1785,26 +1854,26 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>4500</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -1823,38 +1892,41 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-1400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-200</v>
       </c>
       <c r="H33" s="3">
         <v>-200</v>
       </c>
       <c r="I33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-4200</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
@@ -1870,8 +1942,11 @@
       <c r="Q33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1917,38 +1992,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-1400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-200</v>
       </c>
       <c r="H35" s="3">
         <v>-200</v>
       </c>
       <c r="I35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-4200</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
@@ -1964,60 +2042,66 @@
       <c r="Q35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42094</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2035,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2054,37 +2139,38 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>100</v>
+      </c>
+      <c r="E41" s="3">
         <v>300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
       <c r="G41" s="3">
         <v>0</v>
       </c>
       <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>4</v>
+      <c r="L41" s="3">
+        <v>0</v>
       </c>
       <c r="M41" s="3" t="s">
         <v>4</v>
@@ -2095,14 +2181,17 @@
       <c r="O41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
+      <c r="P41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2148,16 +2237,19 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="3">
-        <v>0</v>
+      <c r="E43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F43" s="3">
         <v>0</v>
@@ -2165,8 +2257,8 @@
       <c r="G43" s="3">
         <v>0</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>4</v>
+      <c r="H43" s="3">
+        <v>0</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>4</v>
@@ -2183,8 +2275,8 @@
       <c r="M43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N43" s="3">
-        <v>0</v>
+      <c r="N43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O43" s="3">
         <v>0</v>
@@ -2195,19 +2287,22 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E44" s="3">
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G44" s="3">
         <v>200</v>
@@ -2219,13 +2314,13 @@
         <v>200</v>
       </c>
       <c r="J44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
       </c>
-      <c r="L44" s="3" t="s">
-        <v>4</v>
+      <c r="L44" s="3">
+        <v>0</v>
       </c>
       <c r="M44" s="3" t="s">
         <v>4</v>
@@ -2242,31 +2337,34 @@
       <c r="Q44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
         <v>300</v>
       </c>
       <c r="F45" s="3">
+        <v>300</v>
+      </c>
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
         <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>4</v>
+      <c r="J45" s="3">
+        <v>0</v>
       </c>
       <c r="K45" s="3" t="s">
         <v>4</v>
@@ -2280,8 +2378,8 @@
       <c r="N45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O45" s="3">
-        <v>0</v>
+      <c r="O45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2289,37 +2387,40 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>300</v>
+      </c>
+      <c r="E46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
       <c r="K46" s="3">
         <v>0</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>4</v>
+      <c r="L46" s="3">
+        <v>0</v>
       </c>
       <c r="M46" s="3" t="s">
         <v>4</v>
@@ -2330,14 +2431,17 @@
       <c r="O46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P46" s="3">
-        <v>0</v>
+      <c r="P46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2347,8 +2451,8 @@
       <c r="E47" s="3">
         <v>0</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>4</v>
+      <c r="F47" s="3">
+        <v>0</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>4</v>
@@ -2362,8 +2466,8 @@
       <c r="J47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -2374,22 +2478,25 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-      <c r="O47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2403,8 +2510,8 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>4</v>
@@ -2424,14 +2531,17 @@
       <c r="O48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P48" s="3">
-        <v>200</v>
+      <c r="P48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2477,8 +2587,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2524,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2571,16 +2687,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
         <v>0</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>4</v>
+      <c r="E52" s="3">
+        <v>0</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>4</v>
@@ -2597,8 +2716,8 @@
       <c r="J52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2618,8 +2737,11 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2665,37 +2787,40 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
       <c r="K54" s="3">
         <v>0</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>4</v>
+      <c r="L54" s="3">
+        <v>0</v>
       </c>
       <c r="M54" s="3" t="s">
         <v>4</v>
@@ -2706,14 +2831,17 @@
       <c r="O54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P54" s="3">
-        <v>200</v>
+      <c r="P54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2731,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2750,20 +2879,21 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
       <c r="G57" s="3">
         <v>0</v>
       </c>
@@ -2771,17 +2901,17 @@
         <v>0</v>
       </c>
       <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2791,28 +2921,31 @@
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
+      <c r="P57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>900</v>
+      </c>
+      <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>200</v>
@@ -2821,11 +2954,11 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2838,37 +2971,40 @@
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -2882,31 +3018,34 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="E60" s="3">
         <v>500</v>
       </c>
       <c r="F60" s="3">
+        <v>500</v>
+      </c>
+      <c r="G60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>200</v>
       </c>
       <c r="H60" s="3">
         <v>200</v>
@@ -2915,13 +3054,13 @@
         <v>200</v>
       </c>
       <c r="J60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K60" s="3">
         <v>100</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>4</v>
+      <c r="L60" s="3">
+        <v>100</v>
       </c>
       <c r="M60" s="3" t="s">
         <v>4</v>
@@ -2932,14 +3071,17 @@
       <c r="O60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2985,31 +3127,34 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
+        <v>400</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K62" s="3">
         <v>0</v>
@@ -3032,8 +3177,11 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3079,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3126,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3173,22 +3327,25 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>500</v>
+        <v>2400</v>
       </c>
       <c r="E66" s="3">
         <v>500</v>
       </c>
       <c r="F66" s="3">
+        <v>500</v>
+      </c>
+      <c r="G66" s="3">
         <v>300</v>
-      </c>
-      <c r="G66" s="3">
-        <v>200</v>
       </c>
       <c r="H66" s="3">
         <v>200</v>
@@ -3197,13 +3354,13 @@
         <v>200</v>
       </c>
       <c r="J66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K66" s="3">
         <v>100</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>4</v>
+      <c r="L66" s="3">
+        <v>100</v>
       </c>
       <c r="M66" s="3" t="s">
         <v>4</v>
@@ -3214,14 +3371,17 @@
       <c r="O66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3239,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3286,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3333,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3380,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3427,37 +3597,40 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-15200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-13800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-5200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-500</v>
       </c>
       <c r="K72" s="3">
         <v>-500</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>4</v>
+      <c r="L72" s="3">
+        <v>-500</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>4</v>
@@ -3468,14 +3641,17 @@
       <c r="O72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P72" s="3">
-        <v>-300</v>
+      <c r="P72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3521,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3568,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3615,37 +3797,40 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-100</v>
       </c>
-      <c r="J76" s="3">
-        <v>0</v>
-      </c>
       <c r="K76" s="3">
         <v>0</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>4</v>
+      <c r="L76" s="3">
+        <v>0</v>
       </c>
       <c r="M76" s="3" t="s">
         <v>4</v>
@@ -3656,14 +3841,17 @@
       <c r="O76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q76" s="3">
         <v>100</v>
       </c>
-      <c r="Q76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3709,90 +3897,96 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42094</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-1400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-8000</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-200</v>
       </c>
       <c r="H81" s="3">
         <v>-200</v>
       </c>
       <c r="I81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-4200</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
@@ -3808,8 +4002,11 @@
       <c r="Q81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3827,8 +4024,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3847,8 +4045,8 @@
       <c r="H83" s="3">
         <v>0</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>4</v>
+      <c r="I83" s="3">
+        <v>0</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>4</v>
@@ -3865,8 +4063,8 @@
       <c r="N83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -3874,8 +4072,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3921,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3968,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4015,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4062,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4109,16 +4322,19 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="E89" s="3">
-        <v>-100</v>
       </c>
       <c r="F89" s="3">
         <v>-100</v>
@@ -4127,37 +4343,40 @@
         <v>-100</v>
       </c>
       <c r="H89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I89" s="3">
         <v>-300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-600</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>4</v>
+      <c r="M89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4175,16 +4394,17 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -4195,8 +4415,8 @@
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>4</v>
@@ -4213,8 +4433,8 @@
       <c r="N91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -4222,8 +4442,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4269,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4316,8 +4542,11 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4336,8 +4565,8 @@
       <c r="H94" s="3">
         <v>0</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>4</v>
+      <c r="I94" s="3">
+        <v>0</v>
       </c>
       <c r="J94" s="3" t="s">
         <v>4</v>
@@ -4354,8 +4583,8 @@
       <c r="N94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -4363,8 +4592,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4382,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4429,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4476,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4523,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4570,55 +4812,61 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>400</v>
+      </c>
+      <c r="E100" s="3">
         <v>1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>4</v>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4664,51 +4912,57 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E102" s="3">
         <v>200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>100</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>4</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>4</v>
+      <c r="M102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,85 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42094</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -762,11 +766,11 @@
         <v>0</v>
       </c>
       <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
         <v>200</v>
       </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
@@ -788,35 +792,38 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>4</v>
+      <c r="D9" s="3">
+        <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="3">
-        <v>100</v>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G9" s="3">
         <v>100</v>
       </c>
       <c r="H9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
       </c>
       <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>200</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L9" s="3" t="s">
         <v>4</v>
       </c>
@@ -838,8 +845,11 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -849,14 +859,14 @@
       <c r="E10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3">
-        <v>-100</v>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G10" s="3">
         <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -864,8 +874,8 @@
       <c r="J10" s="3">
         <v>0</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>4</v>
+      <c r="K10" s="3">
+        <v>0</v>
       </c>
       <c r="L10" s="3" t="s">
         <v>4</v>
@@ -888,8 +898,11 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,25 +921,26 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
         <v>900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>200</v>
       </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
       <c r="H12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
@@ -935,11 +949,11 @@
         <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>100</v>
+      </c>
+      <c r="L12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,17 +1025,20 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
         <v>200</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1034,8 +1054,8 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,41 +1151,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>2100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>4000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>100</v>
       </c>
-      <c r="M17" s="3">
-        <v>0</v>
-      </c>
       <c r="N17" s="3">
         <v>0</v>
       </c>
@@ -1175,8 +1202,11 @@
       <c r="R17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,32 +1214,32 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-1200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-2700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-3800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
@@ -1225,8 +1255,11 @@
       <c r="R18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1254,29 +1288,29 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-4500</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1295,8 +1329,11 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,22 +1341,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-1300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-7200</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-200</v>
       </c>
       <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>4</v>
+      <c r="J21" s="3">
+        <v>-200</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>4</v>
@@ -1345,8 +1382,11 @@
       <c r="R21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,25 +1394,25 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
       <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>800</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
       <c r="I22" s="3">
         <v>0</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>4</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>4</v>
@@ -1389,47 +1429,50 @@
       <c r="P22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
+      <c r="Q22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-2600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-1400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-8000</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-200</v>
       </c>
       <c r="I23" s="3">
         <v>-200</v>
       </c>
       <c r="J23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K23" s="3">
         <v>-4200</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
@@ -1445,8 +1488,11 @@
       <c r="R23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1541,11 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,41 +1594,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-2600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-1400</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-8000</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-200</v>
       </c>
       <c r="I26" s="3">
         <v>-200</v>
       </c>
       <c r="J26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K26" s="3">
         <v>-4200</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
@@ -1595,41 +1647,44 @@
       <c r="R26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-2600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-1400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-8000</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-200</v>
       </c>
       <c r="I27" s="3">
         <v>-200</v>
       </c>
       <c r="J27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K27" s="3">
         <v>-4200</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
@@ -1645,8 +1700,11 @@
       <c r="R27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1854,29 +1924,29 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>500</v>
+      </c>
+      <c r="F32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>4500</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -1895,41 +1965,44 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-2600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-8000</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-200</v>
       </c>
       <c r="I33" s="3">
         <v>-200</v>
       </c>
       <c r="J33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-4200</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
@@ -1945,8 +2018,11 @@
       <c r="R33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,41 +2071,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-2600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-8000</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-200</v>
       </c>
       <c r="I35" s="3">
         <v>-200</v>
       </c>
       <c r="J35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-4200</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
@@ -2045,63 +2124,69 @@
       <c r="R35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42094</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,40 +2226,41 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>0</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
-        <v>0</v>
-      </c>
       <c r="H41" s="3">
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>4</v>
+      <c r="M41" s="3">
+        <v>0</v>
       </c>
       <c r="N41" s="3" t="s">
         <v>4</v>
@@ -2184,14 +2271,17 @@
       <c r="P41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
+      <c r="Q41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2330,11 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2251,8 +2344,8 @@
       <c r="E43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F43" s="3">
-        <v>0</v>
+      <c r="F43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2260,8 +2353,8 @@
       <c r="H43" s="3">
         <v>0</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>4</v>
+      <c r="I43" s="3">
+        <v>0</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>4</v>
@@ -2278,8 +2371,8 @@
       <c r="N43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O43" s="3">
-        <v>0</v>
+      <c r="O43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -2290,8 +2383,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2299,13 +2395,13 @@
         <v>100</v>
       </c>
       <c r="E44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F44" s="3">
         <v>0</v>
       </c>
       <c r="G44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H44" s="3">
         <v>200</v>
@@ -2317,13 +2413,13 @@
         <v>200</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3" t="s">
-        <v>4</v>
+      <c r="M44" s="3">
+        <v>0</v>
       </c>
       <c r="N44" s="3" t="s">
         <v>4</v>
@@ -2340,34 +2436,37 @@
       <c r="R44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>100</v>
+      </c>
+      <c r="E45" s="3">
         <v>200</v>
-      </c>
-      <c r="E45" s="3">
-        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>300</v>
       </c>
       <c r="G45" s="3">
+        <v>300</v>
+      </c>
+      <c r="H45" s="3">
         <v>600</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>4</v>
+      <c r="K45" s="3">
+        <v>0</v>
       </c>
       <c r="L45" s="3" t="s">
         <v>4</v>
@@ -2381,8 +2480,8 @@
       <c r="O45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P45" s="3">
-        <v>0</v>
+      <c r="P45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2390,40 +2489,43 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>200</v>
+      </c>
+      <c r="E46" s="3">
         <v>300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>4</v>
+      <c r="M46" s="3">
+        <v>0</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>4</v>
@@ -2434,14 +2536,17 @@
       <c r="P46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q46" s="3">
-        <v>0</v>
+      <c r="Q46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2454,8 +2559,8 @@
       <c r="F47" s="3">
         <v>0</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>4</v>
+      <c r="G47" s="3">
+        <v>0</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>4</v>
@@ -2469,8 +2574,8 @@
       <c r="K47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M47" s="3">
         <v>0</v>
@@ -2481,17 +2586,20 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-      <c r="P47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2499,7 +2607,7 @@
         <v>500</v>
       </c>
       <c r="E48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -2513,8 +2621,8 @@
       <c r="I48" s="3">
         <v>0</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>4</v>
+      <c r="J48" s="3">
+        <v>0</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>4</v>
@@ -2534,14 +2642,17 @@
       <c r="P48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q48" s="3">
-        <v>200</v>
+      <c r="Q48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2701,8 +2821,8 @@
       <c r="E52" s="3">
         <v>0</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>4</v>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>4</v>
@@ -2719,8 +2839,8 @@
       <c r="K52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,40 +2913,43 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>700</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
       <c r="L54" s="3">
         <v>0</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>4</v>
+      <c r="M54" s="3">
+        <v>0</v>
       </c>
       <c r="N54" s="3" t="s">
         <v>4</v>
@@ -2834,14 +2960,17 @@
       <c r="P54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q54" s="3">
-        <v>200</v>
+      <c r="Q54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2889,14 +3020,14 @@
         <v>1000</v>
       </c>
       <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
-        <v>0</v>
-      </c>
       <c r="H57" s="3">
         <v>0</v>
       </c>
@@ -2904,17 +3035,17 @@
         <v>0</v>
       </c>
       <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
         <v>100</v>
       </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
       <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
         <v>100</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>4</v>
       </c>
@@ -2924,31 +3055,34 @@
       <c r="P57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
+      <c r="Q57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>800</v>
+      </c>
+      <c r="E58" s="3">
         <v>900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
-      </c>
-      <c r="H58" s="3">
-        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>200</v>
@@ -2957,11 +3091,11 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
@@ -2974,22 +3108,25 @@
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
         <v>100</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
+      <c r="E59" s="3">
+        <v>100</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>4</v>
@@ -3006,8 +3143,8 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -3021,17 +3158,20 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3039,16 +3179,16 @@
         <v>1900</v>
       </c>
       <c r="E60" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="F60" s="3">
         <v>500</v>
       </c>
       <c r="G60" s="3">
+        <v>500</v>
+      </c>
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="H60" s="3">
-        <v>200</v>
       </c>
       <c r="I60" s="3">
         <v>200</v>
@@ -3057,13 +3197,13 @@
         <v>200</v>
       </c>
       <c r="K60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L60" s="3">
         <v>100</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>4</v>
+      <c r="M60" s="3">
+        <v>100</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>4</v>
@@ -3074,14 +3214,17 @@
       <c r="P60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R60" s="3">
         <v>100</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3130,16 +3273,19 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>4</v>
+      <c r="E62" s="3">
+        <v>400</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>4</v>
@@ -3156,8 +3302,8 @@
       <c r="J62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,25 +3485,28 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2400</v>
-      </c>
-      <c r="E66" s="3">
-        <v>500</v>
       </c>
       <c r="F66" s="3">
         <v>500</v>
       </c>
       <c r="G66" s="3">
+        <v>500</v>
+      </c>
+      <c r="H66" s="3">
         <v>300</v>
-      </c>
-      <c r="H66" s="3">
-        <v>200</v>
       </c>
       <c r="I66" s="3">
         <v>200</v>
@@ -3357,13 +3515,13 @@
         <v>200</v>
       </c>
       <c r="K66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L66" s="3">
         <v>100</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>4</v>
+      <c r="M66" s="3">
+        <v>100</v>
       </c>
       <c r="N66" s="3" t="s">
         <v>4</v>
@@ -3374,14 +3532,17 @@
       <c r="P66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R66" s="3">
         <v>100</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,40 +3771,43 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-17800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-15200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-13800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-5200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-500</v>
       </c>
       <c r="L72" s="3">
         <v>-500</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>4</v>
+      <c r="M72" s="3">
+        <v>-500</v>
       </c>
       <c r="N72" s="3" t="s">
         <v>4</v>
@@ -3644,14 +3818,17 @@
       <c r="P72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q72" s="3">
-        <v>-300</v>
+      <c r="Q72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,8 +3983,11 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3809,31 +3995,31 @@
         <v>-1500</v>
       </c>
       <c r="E76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F76" s="3">
         <v>200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-100</v>
       </c>
-      <c r="K76" s="3">
-        <v>0</v>
-      </c>
       <c r="L76" s="3">
         <v>0</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>4</v>
+      <c r="M76" s="3">
+        <v>0</v>
       </c>
       <c r="N76" s="3" t="s">
         <v>4</v>
@@ -3844,14 +4030,17 @@
       <c r="P76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R76" s="3">
         <v>100</v>
       </c>
-      <c r="R76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,96 +4089,102 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42094</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-2600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-8000</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-200</v>
       </c>
       <c r="I81" s="3">
         <v>-200</v>
       </c>
       <c r="J81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-4200</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
@@ -4005,8 +4200,11 @@
       <c r="R81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4048,8 +4247,8 @@
       <c r="I83" s="3">
         <v>0</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>4</v>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>4</v>
@@ -4066,8 +4265,8 @@
       <c r="O83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
+      <c r="P83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q83" s="3">
         <v>0</v>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,19 +4539,22 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-100</v>
       </c>
       <c r="G89" s="3">
         <v>-100</v>
@@ -4346,37 +4563,40 @@
         <v>-100</v>
       </c>
       <c r="I89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J89" s="3">
         <v>-300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>4</v>
+      <c r="N89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4615,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,8 +4627,8 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
@@ -4418,8 +4639,8 @@
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>4</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>4</v>
@@ -4436,8 +4657,8 @@
       <c r="O91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4568,8 +4798,8 @@
       <c r="I94" s="3">
         <v>0</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>4</v>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>4</v>
@@ -4586,8 +4816,8 @@
       <c r="O94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>100</v>
+      </c>
+      <c r="E100" s="3">
         <v>400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>4</v>
+      <c r="N100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>100</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>4</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>4</v>
+      <c r="N102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,85 +665,89 @@
     <col min="1" max="1" width="8.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42094</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -769,11 +773,11 @@
         <v>0</v>
       </c>
       <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
       <c r="M8" s="3">
         <v>0</v>
       </c>
@@ -795,38 +799,41 @@
       <c r="S8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3">
-        <v>100</v>
+      <c r="G9" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H9" s="3">
         <v>100</v>
       </c>
       <c r="I9" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J9" s="3">
         <v>0</v>
       </c>
       <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
         <v>200</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M9" s="3" t="s">
         <v>4</v>
       </c>
@@ -848,28 +855,31 @@
       <c r="S9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>4</v>
+      <c r="E10" s="3">
+        <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3">
-        <v>-100</v>
+      <c r="G10" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H10" s="3">
         <v>-100</v>
       </c>
       <c r="I10" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -877,8 +887,8 @@
       <c r="K10" s="3">
         <v>0</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>4</v>
+      <c r="L10" s="3">
+        <v>0</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>4</v>
@@ -901,8 +911,11 @@
       <c r="S10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -922,28 +935,29 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>200</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
       <c r="I12" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>100</v>
@@ -952,11 +966,11 @@
         <v>100</v>
       </c>
       <c r="L12" s="3">
+        <v>100</v>
+      </c>
+      <c r="M12" s="3">
         <v>400</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,20 +1045,23 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="3">
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3">
         <v>200</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1057,8 +1077,8 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,44 +1178,45 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>200</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>2100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>4000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>100</v>
       </c>
-      <c r="N17" s="3">
-        <v>0</v>
-      </c>
       <c r="O17" s="3">
         <v>0</v>
       </c>
@@ -1205,8 +1232,11 @@
       <c r="S17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1214,35 +1244,35 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-2100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-2700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-3800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
         <v>0</v>
       </c>
@@ -1258,8 +1288,11 @@
       <c r="S18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1288,32 +1322,32 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-4500</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1332,8 +1366,11 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1341,25 +1378,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-1300</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-7200</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-200</v>
       </c>
       <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>4</v>
+      <c r="K21" s="3">
+        <v>-200</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>4</v>
@@ -1385,8 +1422,11 @@
       <c r="S21" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,25 +1437,25 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
         <v>800</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
         <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>4</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>4</v>
@@ -1432,50 +1472,53 @@
       <c r="Q22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
+      <c r="R22" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-2600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-200</v>
       </c>
       <c r="J23" s="3">
         <v>-200</v>
       </c>
       <c r="K23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L23" s="3">
         <v>-4200</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
         <v>0</v>
       </c>
@@ -1491,8 +1534,11 @@
       <c r="S23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1544,8 +1590,11 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,44 +1646,47 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-2600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1400</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-8000</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-200</v>
       </c>
       <c r="J26" s="3">
         <v>-200</v>
       </c>
       <c r="K26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L26" s="3">
         <v>-4200</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
         <v>0</v>
       </c>
@@ -1650,44 +1702,47 @@
       <c r="S26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-2600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-8000</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-200</v>
       </c>
       <c r="J27" s="3">
         <v>-200</v>
       </c>
       <c r="K27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L27" s="3">
         <v>-4200</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
         <v>0</v>
       </c>
@@ -1703,8 +1758,11 @@
       <c r="S27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1924,32 +1994,32 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>4500</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -1968,44 +2038,47 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-2600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-8000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-200</v>
       </c>
       <c r="J33" s="3">
         <v>-200</v>
       </c>
       <c r="K33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L33" s="3">
         <v>-4200</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
@@ -2021,8 +2094,11 @@
       <c r="S33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,44 +2150,47 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-2600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-8000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-200</v>
       </c>
       <c r="J35" s="3">
         <v>-200</v>
       </c>
       <c r="K35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L35" s="3">
         <v>-4200</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
@@ -2127,66 +2206,72 @@
       <c r="S35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42094</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2236,34 +2323,34 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
         <v>100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
       <c r="I41" s="3">
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>4</v>
+      <c r="N41" s="3">
+        <v>0</v>
       </c>
       <c r="O41" s="3" t="s">
         <v>4</v>
@@ -2274,14 +2361,17 @@
       <c r="Q41" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
+      <c r="R41" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2423,11 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2347,8 +2440,8 @@
       <c r="F43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
+      <c r="G43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H43" s="3">
         <v>0</v>
@@ -2356,8 +2449,8 @@
       <c r="I43" s="3">
         <v>0</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>4</v>
+      <c r="J43" s="3">
+        <v>0</v>
       </c>
       <c r="K43" s="3" t="s">
         <v>4</v>
@@ -2374,8 +2467,8 @@
       <c r="O43" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P43" s="3">
-        <v>0</v>
+      <c r="P43" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q43" s="3">
         <v>0</v>
@@ -2386,25 +2479,28 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E44" s="3">
         <v>100</v>
       </c>
       <c r="F44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G44" s="3">
         <v>0</v>
       </c>
       <c r="H44" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>200</v>
@@ -2416,13 +2512,13 @@
         <v>200</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
-        <v>4</v>
+      <c r="N44" s="3">
+        <v>0</v>
       </c>
       <c r="O44" s="3" t="s">
         <v>4</v>
@@ -2439,37 +2535,40 @@
       <c r="S44" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
-      </c>
-      <c r="F45" s="3">
-        <v>300</v>
       </c>
       <c r="G45" s="3">
         <v>300</v>
       </c>
       <c r="H45" s="3">
+        <v>300</v>
+      </c>
+      <c r="I45" s="3">
         <v>600</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
         <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>4</v>
+      <c r="L45" s="3">
+        <v>0</v>
       </c>
       <c r="M45" s="3" t="s">
         <v>4</v>
@@ -2483,8 +2582,8 @@
       <c r="P45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q45" s="3">
-        <v>0</v>
+      <c r="Q45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2492,43 +2591,46 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>0</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>700</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
       <c r="M46" s="3">
         <v>0</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>4</v>
+      <c r="N46" s="3">
+        <v>0</v>
       </c>
       <c r="O46" s="3" t="s">
         <v>4</v>
@@ -2539,14 +2641,17 @@
       <c r="Q46" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R46" s="3">
-        <v>0</v>
+      <c r="R46" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2562,8 +2667,8 @@
       <c r="G47" s="3">
         <v>0</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>4</v>
+      <c r="H47" s="3">
+        <v>0</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>4</v>
@@ -2577,8 +2682,8 @@
       <c r="L47" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="M47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -2589,28 +2694,31 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
         <v>500</v>
       </c>
       <c r="F48" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G48" s="3">
         <v>0</v>
@@ -2624,8 +2732,8 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>4</v>
+      <c r="K48" s="3">
+        <v>0</v>
       </c>
       <c r="L48" s="3" t="s">
         <v>4</v>
@@ -2645,14 +2753,17 @@
       <c r="Q48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R48" s="3">
-        <v>200</v>
+      <c r="R48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,13 +2927,16 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
+      <c r="D52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -2824,8 +2944,8 @@
       <c r="F52" s="3">
         <v>0</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>4</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>4</v>
@@ -2842,8 +2962,8 @@
       <c r="L52" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,43 +3039,46 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>0</v>
+      </c>
+      <c r="E54" s="3">
         <v>700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
       <c r="M54" s="3">
         <v>0</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>4</v>
+      <c r="N54" s="3">
+        <v>0</v>
       </c>
       <c r="O54" s="3" t="s">
         <v>4</v>
@@ -2963,14 +3089,17 @@
       <c r="Q54" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R54" s="3">
-        <v>200</v>
+      <c r="R54" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S54" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,26 +3141,27 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="E57" s="3">
         <v>1000</v>
       </c>
       <c r="F57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
       <c r="I57" s="3">
         <v>0</v>
       </c>
@@ -3038,17 +3169,17 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
       <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>100</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O57" s="3" t="s">
         <v>4</v>
       </c>
@@ -3058,34 +3189,37 @@
       <c r="Q57" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R57" s="3">
-        <v>0</v>
+      <c r="R57" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>700</v>
+      </c>
+      <c r="E58" s="3">
         <v>800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>200</v>
       </c>
       <c r="J58" s="3">
         <v>200</v>
@@ -3094,11 +3228,11 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
@@ -3111,25 +3245,28 @@
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
-        <v>100</v>
+      <c r="D59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E59" s="3">
         <v>100</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
+      <c r="F59" s="3">
+        <v>100</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
@@ -3146,8 +3283,8 @@
       <c r="K59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3161,37 +3298,40 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>1600</v>
       </c>
       <c r="E60" s="3">
         <v>1900</v>
       </c>
       <c r="F60" s="3">
-        <v>500</v>
+        <v>1900</v>
       </c>
       <c r="G60" s="3">
         <v>500</v>
       </c>
       <c r="H60" s="3">
+        <v>500</v>
+      </c>
+      <c r="I60" s="3">
         <v>300</v>
-      </c>
-      <c r="I60" s="3">
-        <v>200</v>
       </c>
       <c r="J60" s="3">
         <v>200</v>
@@ -3200,13 +3340,13 @@
         <v>200</v>
       </c>
       <c r="L60" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M60" s="3">
         <v>100</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>4</v>
+      <c r="N60" s="3">
+        <v>100</v>
       </c>
       <c r="O60" s="3" t="s">
         <v>4</v>
@@ -3217,14 +3357,17 @@
       <c r="Q60" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S60" s="3">
         <v>100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3276,19 +3419,22 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
-        <v>400</v>
+      <c r="D62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E62" s="3">
         <v>400</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>4</v>
+      <c r="F62" s="3">
+        <v>400</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>4</v>
@@ -3305,8 +3451,8 @@
       <c r="K62" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="L62" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,28 +3643,31 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E66" s="3">
         <v>2300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
-      </c>
-      <c r="F66" s="3">
-        <v>500</v>
       </c>
       <c r="G66" s="3">
         <v>500</v>
       </c>
       <c r="H66" s="3">
+        <v>500</v>
+      </c>
+      <c r="I66" s="3">
         <v>300</v>
-      </c>
-      <c r="I66" s="3">
-        <v>200</v>
       </c>
       <c r="J66" s="3">
         <v>200</v>
@@ -3518,13 +3676,13 @@
         <v>200</v>
       </c>
       <c r="L66" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M66" s="3">
         <v>100</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>4</v>
+      <c r="N66" s="3">
+        <v>100</v>
       </c>
       <c r="O66" s="3" t="s">
         <v>4</v>
@@ -3535,14 +3693,17 @@
       <c r="Q66" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S66" s="3">
         <v>100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,43 +3945,46 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-18900</v>
+      </c>
+      <c r="E72" s="3">
         <v>-18800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-17800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-15200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-13800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-13100</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-5200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-5000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-4700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-500</v>
       </c>
       <c r="M72" s="3">
         <v>-500</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>4</v>
+      <c r="N72" s="3">
+        <v>-500</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>4</v>
@@ -3821,14 +3995,17 @@
       <c r="Q72" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R72" s="3">
-        <v>-300</v>
+      <c r="R72" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S72" s="3">
         <v>-300</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,43 +4169,46 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-1500</v>
+        <v>-1600</v>
       </c>
       <c r="E76" s="3">
         <v>-1500</v>
       </c>
       <c r="F76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="G76" s="3">
         <v>200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-100</v>
       </c>
-      <c r="L76" s="3">
-        <v>0</v>
-      </c>
       <c r="M76" s="3">
         <v>0</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>4</v>
+      <c r="N76" s="3">
+        <v>0</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>4</v>
@@ -4033,14 +4219,17 @@
       <c r="Q76" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S76" s="3">
         <v>100</v>
       </c>
-      <c r="S76" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,102 +4281,108 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42094</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42004</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-2600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-8000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-200</v>
       </c>
       <c r="J81" s="3">
         <v>-200</v>
       </c>
       <c r="K81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L81" s="3">
         <v>-4200</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
         <v>0</v>
       </c>
@@ -4203,8 +4398,11 @@
       <c r="S81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4250,8 +4449,8 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>4</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>4</v>
@@ -4268,8 +4467,8 @@
       <c r="P83" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
+      <c r="Q83" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R83" s="3">
         <v>0</v>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,22 +4756,25 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-100</v>
       </c>
       <c r="H89" s="3">
         <v>-100</v>
@@ -4566,37 +4783,40 @@
         <v>-100</v>
       </c>
       <c r="J89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K89" s="3">
         <v>-300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3" t="s">
-        <v>4</v>
+      <c r="O89" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4630,8 +4851,8 @@
       <c r="F91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
@@ -4642,8 +4863,8 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>4</v>
@@ -4660,8 +4881,8 @@
       <c r="P91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="Q91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4801,8 +5031,8 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>4</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>4</v>
@@ -4819,8 +5049,8 @@
       <c r="P94" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>4</v>
+      <c r="O100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,48 +5428,51 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>200</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>100</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>4</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
-      <c r="P102" s="3" t="s">
-        <v>4</v>
+      <c r="O102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/GWHP_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="92">
   <si>
     <t>GWHP</t>
   </si>
@@ -4842,17 +4842,17 @@
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
